--- a/Base de datos/Información Adicional.xlsx
+++ b/Base de datos/Información Adicional.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/83de56ce7dee354c/ENECALC_APP/Base de datos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Downloads\App-Energia-master\App-Energia-master\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22056" windowHeight="8748" activeTab="1"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="7476" windowHeight="2388" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Población" sheetId="1" r:id="rId1"/>
     <sheet name="Emisiones" sheetId="2" r:id="rId2"/>
+    <sheet name="Emisiones por Sectores" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>Dato Oficial</t>
   </si>
@@ -58,6 +59,54 @@
   </si>
   <si>
     <t>Emisiones Mt CO2eq</t>
+  </si>
+  <si>
+    <t>Comercial</t>
+  </si>
+  <si>
+    <t>Forestal</t>
+  </si>
+  <si>
+    <t>Industrias de la energía</t>
+  </si>
+  <si>
+    <t>Residencial</t>
+  </si>
+  <si>
+    <t>Saneamiento</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>#f7bd0b</t>
+  </si>
+  <si>
+    <t>#244b7e</t>
+  </si>
+  <si>
+    <t>#8a3702</t>
+  </si>
+  <si>
+    <t>#066e67</t>
+  </si>
+  <si>
+    <t>#5f5ca5</t>
+  </si>
+  <si>
+    <t>Agropecuario</t>
+  </si>
+  <si>
+    <t>#48a04a</t>
+  </si>
+  <si>
+    <t>#998b00</t>
+  </si>
+  <si>
+    <t>Industrias manufactureras y de la construcción</t>
+  </si>
+  <si>
+    <t>#8d0049</t>
   </si>
 </sst>
 </file>
@@ -65,7 +114,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -552,15 +601,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1213,28 +1262,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1242,248 +1291,248 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2010</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>29.39847035</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>29.354573160000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>26.597992219999998</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2011</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>30.30564502</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>30.162979150000002</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>23.290682910000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>2012</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>31.241170289999999</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>30.999735730000001</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>24.785381879999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2013</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>32.205943929999997</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>31.554070620000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>29.638033119999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>2014</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>33.200892519999996</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>31.927873930000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>29.984270370000001</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2015</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>34.226972369999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>32.06104354</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>2016</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>35.285170549999997</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>31.65018808</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>2017</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>36.376505790000003</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>31.387082889999999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>2018</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>37.502029620000002</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>33.273635259999999</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>2019</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>38.662827360000001</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>34.7353253</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>2020</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>39.860019260000001</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>34.893412230000003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>2021</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>41.094761599999998</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>35.403965319999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>2022</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>42.368247920000002</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>36.644150519999997</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>2023</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>43.681710189999997</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>37.46559697</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>2024</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>45.036420100000001</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>37.458473650000002</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>2025</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>46.433690319999997</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>37.167722060000003</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>2026</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>47.874875860000003</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>38.330874819999998</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>2027</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>49.361375440000003</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>39.673375669999999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>2028</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>50.894632960000003</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>40.407151839999997</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>2029</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>52.476138910000003</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>41.826889479999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>2030</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>54.107431949999999</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>42.945282089999999</v>
       </c>
     </row>
@@ -1494,4 +1543,219 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25.103353904482901</v>
+      </c>
+      <c r="C3" s="2">
+        <v>54.696658991737003</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2313263955931999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>84.215286458579996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>26.664509108720001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4.7085485915817999</v>
+      </c>
+      <c r="H3" s="2">
+        <v>9.2159828227689999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>24.525282009076101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="2">
+        <v>24.5130436971344</v>
+      </c>
+      <c r="C4" s="2">
+        <v>52.521634329784</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.3504843117316001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88.608263763509001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>23.376848111558999</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4.9917729544035998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.9828380548369999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26.230202244301399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="2">
+        <v>26.265865562873898</v>
+      </c>
+      <c r="C5" s="2">
+        <v>53.239591457416999</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.6437233154972</v>
+      </c>
+      <c r="E5" s="2">
+        <v>87.646347339390005</v>
+      </c>
+      <c r="F5" s="2">
+        <v>24.872885487358001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.79309715464065</v>
+      </c>
+      <c r="H5" s="2">
+        <v>9.2237567816109998</v>
+      </c>
+      <c r="I5" s="2">
+        <v>27.131972344652201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26.529880456496301</v>
+      </c>
+      <c r="C6" s="2">
+        <v>53.492224244860999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.8121416057048001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>76.510767123190007</v>
+      </c>
+      <c r="F6" s="2">
+        <v>31.814383668801</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4.7486904168702999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9.5734717976759995</v>
+      </c>
+      <c r="I6" s="2">
+        <v>27.295577064068599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="2">
+        <v>27.631099662162001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>52.001282318775999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.074727095154</v>
+      </c>
+      <c r="E7" s="2">
+        <v>79.227719760710002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>32.322009852826</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4.9391703338299999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9.8195287522779999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>28.957844589055</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>